--- a/Result/CorrelationBasedResult.xlsx
+++ b/Result/CorrelationBasedResult.xlsx
@@ -471,28 +471,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7438423645320197</v>
+        <v>0.7339901477832512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.74088693957115</v>
+        <v>0.7303606237816763</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7431274710135279</v>
+        <v>0.7328939533373031</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7408810448988459</v>
+        <v>0.7303516052739814</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7438423645320197</v>
+        <v>0.7339901477832512</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7379315146102805</v>
+        <v>0.7267310997801016</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2620684853897195</v>
+        <v>0.2732689002198984</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2561576354679803</v>
+        <v>0.2660098522167488</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -695,28 +695,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7487684729064039</v>
+        <v>0.7339901477832512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7442495126705653</v>
+        <v>0.7278265107212476</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7471361759272808</v>
+        <v>0.7309325632750128</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7442357933536662</v>
+        <v>0.7278004117110913</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7487684729064039</v>
+        <v>0.7339901477832512</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7397305524347266</v>
+        <v>0.7216628736592438</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2602694475652734</v>
+        <v>0.2783371263407562</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2512315270935961</v>
+        <v>0.2660098522167488</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -823,28 +823,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4975369458128079</v>
+        <v>0.5073891625615764</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4992690058479532</v>
+        <v>0.5110623781676413</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4976832658635321</v>
+        <v>0.506312652864377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4992660014145147</v>
+        <v>0.511049177541141</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4975369458128079</v>
+        <v>0.5073891625615764</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5010010658830986</v>
+        <v>0.5147355937737064</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4989989341169014</v>
+        <v>0.4852644062262936</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5024630541871922</v>
+        <v>0.4926108374384236</v>
       </c>
     </row>
   </sheetData>
